--- a/tests/stackexchange_forums.xlsx
+++ b/tests/stackexchange_forums.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nad2000\Stackexchange-Parsing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nad2000\Stackexchange-Parsing\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Tor</t>
   </si>
@@ -36,6 +36,12 @@
   </si>
   <si>
     <t>http://law.stackexchange.com/</t>
+  </si>
+  <si>
+    <t>Super User</t>
+  </si>
+  <si>
+    <t>http://superuser.com/</t>
   </si>
 </sst>
 </file>
@@ -429,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD12"/>
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -455,6 +461,14 @@
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
